--- a/word_docs/Statistics.xlsx
+++ b/word_docs/Statistics.xlsx
@@ -8740,7 +8740,7 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/word_docs/Statistics.xlsx
+++ b/word_docs/Statistics.xlsx
@@ -19,7 +19,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1111,7 +1111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1268,13 +1268,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1619,11 +1619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129429176"/>
-        <c:axId val="2128769096"/>
+        <c:axId val="2115106552"/>
+        <c:axId val="2115109608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129429176"/>
+        <c:axId val="2115106552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128769096"/>
+        <c:crossAx val="2115109608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128769096"/>
+        <c:axId val="2115109608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129429176"/>
+        <c:crossAx val="2115106552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1841,6 +1841,247 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>The Number of Campaigns in Myriad</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dashDnDiag">
+                <a:fgClr>
+                  <a:prstClr val="black"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:prstClr val="white"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:prstClr val="black"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:prstClr val="white"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="divot">
+                <a:fgClr>
+                  <a:prstClr val="black"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:prstClr val="white"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltUpDiag">
+                <a:fgClr>
+                  <a:prstClr val="black"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:prstClr val="white"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dotDmnd">
+                <a:fgClr>
+                  <a:prstClr val="black"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:prstClr val="white"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:prstClr val="black"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:prstClr val="white"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltDnDiag">
+                <a:fgClr>
+                  <a:prstClr val="black"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:prstClr val="white"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0102880577427822"/>
+                  <c:y val="0.117709092333608"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#CampaignsMonths'!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#CampaignsMonths'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2439,11 +2680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119378680"/>
-        <c:axId val="2120392520"/>
+        <c:axId val="-2140462920"/>
+        <c:axId val="-2140466424"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2120392520"/>
+        <c:axId val="-2140466424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,12 +2708,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119378680"/>
+        <c:crossAx val="-2140462920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2119378680"/>
+        <c:axId val="-2140462920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120392520"/>
+        <c:crossAx val="-2140466424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2544,16 +2785,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2567,6 +2808,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2747,7 +3020,7 @@
     <cacheField name="Recipients" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="752"/>
     </cacheField>
-    <cacheField name="Date/Time" numFmtId="165">
+    <cacheField name="Date/Time" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-30T00:00:00" maxDate="2013-08-06T00:00:00" count="59">
         <d v="2013-08-05T00:00:00"/>
         <d v="2013-07-26T00:00:00"/>
@@ -3516,7 +3789,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B31" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -3648,7 +3921,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0">
+    <pivotField dataField="1" numFmtId="164" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -3770,7 +4043,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -3902,7 +4175,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="165" showAll="0">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -3970,7 +4243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B96" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4072,7 +4345,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -8739,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
